--- a/tmp_file/向日葵折扣方案.xlsx
+++ b/tmp_file/向日葵折扣方案.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D8A7FB-18A6-44A7-BC83-E2C77FE11EC3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F35A70-B1DC-43D2-A7EA-54D4483ABCCE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="7755" yWindow="2265" windowWidth="15075" windowHeight="12765" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="安卓授权-新版购买" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -166,17 +166,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -464,7 +464,7 @@
   <dimension ref="B1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -477,29 +477,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
     </row>
     <row r="2" spans="2:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G2" s="6" t="s">
@@ -507,100 +507,100 @@
       </c>
     </row>
     <row r="3" spans="2:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G3" s="6"/>
     </row>
     <row r="4" spans="2:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2" t="s">
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
     </row>
     <row r="6" spans="2:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
     </row>
     <row r="8" spans="2:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
     </row>
     <row r="9" spans="2:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
     </row>
     <row r="10" spans="2:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
     </row>
     <row r="11" spans="2:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="9">
